--- a/docs/単体テスト/画面側/画面側単体テストケース.xlsx
+++ b/docs/単体テスト/画面側/画面側単体テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\単体テスト\画面側\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5CAD4B-EEFF-41BC-9FF1-538C8BFD03B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C5B90-D387-47EB-9F79-E282ECEBC616}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -335,6 +335,24 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストの結果を記載</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -368,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -391,13 +409,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +442,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,8 +539,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C2" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C2" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C3" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C3" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{59F0E347-6180-4621-A528-35D47CF33F58}" name="バージョン" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{99A94A4F-A845-44FE-8C23-0490238BEEFD}" name="改修内容" dataDxfId="1"/>
@@ -847,7 +884,9 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -859,7 +898,9 @@
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -871,7 +912,9 @@
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -883,7 +926,9 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -895,7 +940,9 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -907,7 +954,9 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -919,7 +968,9 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -931,7 +982,9 @@
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -943,7 +996,9 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -955,7 +1010,9 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -967,7 +1024,9 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -979,7 +1038,9 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -991,7 +1052,9 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -1003,7 +1066,9 @@
       <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -1015,7 +1080,9 @@
       <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
@@ -1027,7 +1094,9 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
@@ -1039,7 +1108,9 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1053,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9F086-9105-4B83-B052-4B5F33002E4C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1088,6 +1159,17 @@
         <v>43510</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43513</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/単体テスト/画面側/画面側単体テストケース.xlsx
+++ b/docs/単体テスト/画面側/画面側単体テストケース.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\単体テスト\画面側\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C5B90-D387-47EB-9F79-E282ECEBC616}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC88BC-F366-419C-BF13-BAB9F2E00792}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -129,19 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認対象画面</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正常系</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,32 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・「ユーザー登録はこちら」リンクをクリックすると、ユーザー登録画面に遷移すること</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「キャンセル」ボタンをクリックすると、ログイン画面に遷移すること</t>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ユーザー名を未入力で、「登録」ボタンをクリックするとエラーになること</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -355,6 +316,228 @@
       <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「キャンセル」ボタンをクリックすると、ログイン画面に遷移すること
+・遷移先のログイン画面の入力フォームは未入力なこと</t>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー登録はこちら」リンクをクリックすると、ユーザー登録画面に遷移すること
+・遷移先のユーザー登録画面の入力画面は未入力なこと</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認対象画面</t>
+    <rPh sb="0" eb="2">
+      <t>カクニンタイショウ22</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(共通ヘッダー表示)</t>
+    <rPh sb="7" eb="9">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(キャンセルボタンクリック)</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(ユーザー名未入力)</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(パスワード未入力)</t>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(パスワード(確認)未入力)</t>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(ユーザー名文字数)</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(パスワード文字数)</t>
+    <rPh sb="12" eb="15">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(パスワード不一致)</t>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(共通ヘッダー)</t>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ユーザー登録リンククリック)</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ログインポップアップ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ユーザー名未入力)</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(パスワード未入力)</t>
+    <rPh sb="10" eb="13">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(共通ヘッダー)</t>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(ベット額未入力)</t>
+    <rPh sb="7" eb="8">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(0円入力)</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●テストケース名追加(履歴を書く時に、各テストを識別できなかったため追加した)
+●テストケース名「ユーザー登録(キャンセルボタンクリック)」の確認内容列に以下を追加
+・遷移先のログイン画面の入力フォームは未入力なこと
+●テストケース名「ユーザー登録(キャンセルボタンクリック)」の確認内容列に以下を追加
+・遷移先のユーザー登録画面の入力画面は未入力なこと</t>
   </si>
 </sst>
 </file>
@@ -428,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +632,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,9 +712,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="5">
+    <tableColumn id="3" xr3:uid="{8E0CC825-EE3F-463E-9EC6-B8A3D241B97E}" name="テストケース名"/>
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
@@ -539,8 +726,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C3" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C3" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C4" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C4" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{59F0E347-6180-4621-A528-35D47CF33F58}" name="バージョン" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{99A94A4F-A845-44FE-8C23-0490238BEEFD}" name="改修内容" dataDxfId="1"/>
@@ -847,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -855,261 +1042,316 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="34.69921875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9F086-9105-4B83-B052-4B5F33002E4C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1161,13 +1403,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6">
         <v>43513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43520</v>
       </c>
     </row>
   </sheetData>

--- a/docs/単体テスト/画面側/画面側単体テストケース.xlsx
+++ b/docs/単体テスト/画面側/画面側単体テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\単体テスト\画面側\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC88BC-F366-419C-BF13-BAB9F2E00792}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC0694-F1D9-4E65-9824-9F76EFF10C7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -344,41 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・「ユーザー登録はこちら」リンクをクリックすると、ユーザー登録画面に遷移すること
-・遷移先のユーザー登録画面の入力画面は未入力なこと</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>センイサキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>V1.2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,8 +501,41 @@
     <t>●テストケース名追加(履歴を書く時に、各テストを識別できなかったため追加した)
 ●テストケース名「ユーザー登録(キャンセルボタンクリック)」の確認内容列に以下を追加
 ・遷移先のログイン画面の入力フォームは未入力なこと
-●テストケース名「ユーザー登録(キャンセルボタンクリック)」の確認内容列に以下を追加
-・遷移先のユーザー登録画面の入力画面は未入力なこと</t>
+●テストケース名「ログイン(ユーザー登録リンククリック)」の確認内容列に以下を追加
+・遷移先のユーザー登録画面の入力フォームは未入力なこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー登録はこちら」リンクをクリックすると、ユーザー登録画面に遷移すること
+・遷移先のユーザー登録画面の入力フォームは未入力なこと</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1050,10 +1048,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1067,7 +1065,7 @@
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1084,7 +1082,7 @@
     </row>
     <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1101,7 +1099,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1118,7 +1116,7 @@
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1135,7 +1133,7 @@
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1152,7 +1150,7 @@
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1169,7 +1167,7 @@
     </row>
     <row r="8" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1186,7 +1184,7 @@
     </row>
     <row r="9" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1220,7 +1218,7 @@
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1237,7 +1235,7 @@
     </row>
     <row r="12" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1246,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -1254,7 +1252,7 @@
     </row>
     <row r="13" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1271,7 +1269,7 @@
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1288,7 +1286,7 @@
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1305,7 +1303,7 @@
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1322,7 +1320,7 @@
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1339,7 +1337,7 @@
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1369,7 +1367,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1414,10 +1412,10 @@
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6">
         <v>43520</v>

--- a/docs/単体テスト/画面側/画面側単体テストケース.xlsx
+++ b/docs/単体テスト/画面側/画面側単体テストケース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\単体テスト\画面側\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC0694-F1D9-4E65-9824-9F76EFF10C7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61906ED-0109-4E7B-A8C9-51AFEB3590F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="1068" yWindow="1176" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -535,6 +535,43 @@
     <rPh sb="62" eb="65">
       <t>ミニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(数字以外入力)</t>
+    <rPh sb="4" eb="6">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベット額に数字以外の値を入力して、「ベット」ボタンをクリックするとエラーになること</t>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●テストケース「ベット(数字以外入力)」を追加</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -710,8 +747,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E18" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{8E0CC825-EE3F-463E-9EC6-B8A3D241B97E}" name="テストケース名"/>
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
@@ -724,8 +761,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C4" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C4" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C5" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{59F0E347-6180-4621-A528-35D47CF33F58}" name="バージョン" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{99A94A4F-A845-44FE-8C23-0490238BEEFD}" name="改修内容" dataDxfId="1"/>
@@ -1032,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1043,7 +1080,7 @@
     <col min="1" max="1" width="34.69921875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="70.5" customWidth="1"/>
+    <col min="4" max="4" width="77.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -1349,6 +1386,23 @@
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1364,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9F086-9105-4B83-B052-4B5F33002E4C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1421,6 +1475,17 @@
         <v>43520</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43524</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
